--- a/IT-5.xlsx
+++ b/IT-5.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 6:35:13 PM</t>
+    <t>Report generated on: 6/29/2024, 7:42:19 PM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -731,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>22</v>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>27</v>
@@ -819,7 +819,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="8">
         <v>12</v>
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -927,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>52</v>

--- a/IT-5.xlsx
+++ b/IT-5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 7:42:19 PM</t>
+    <t>Report generated on: 6/30/2024, 9:17:45 AM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -58,7 +58,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Moderately Recommended</t>
+    <t>Below Average</t>
   </si>
   <si>
     <t>Not Recommended</t>
@@ -73,39 +73,45 @@
     <t>["CN","CN Lab"]</t>
   </si>
   <si>
+    <t>["Very bad teacher. His teaching style is very bad his focus is to complete syllabus. For internals, he would never give full marks for assignments and all. He would take class test which would be of 15 mins and consist of 10 questions which are definitely not easy. He will roam around here and there and will check if you are cheating or not. Try not to go with this teacher otherwise ggs to your marks. Chatne se bhi nahi hoga dega nhi ye marks."]</t>
+  </si>
+  <si>
+    <t>Arup Sarkar</t>
+  </si>
+  <si>
+    <t>["Marks dega. Lekin classes bohot boring honge..Friendly bhi ha","Extremely linent. Bharke marks dega…","Acha marks dega lenient v hai"]</t>
+  </si>
+  <si>
+    <t>Mandakini Priyadarshani Behera</t>
+  </si>
+  <si>
+    <t>["SE"]</t>
+  </si>
+  <si>
+    <t>["Has no knowledge of the subject herself. Complete bookish knowledge and can't understand shit if you use your own brain and write a code which does not match the one taught in class. Has very poor idea of the subject.","kuch nahi aata usko, sahi likha answer bhi kata ke 0 kar degi , na internal deti hai nahi paper checking me"]</t>
+  </si>
+  <si>
+    <t>Saurabh Bilgaiyan</t>
+  </si>
+  <si>
+    <t>["I never studied from him. But my roommate was in his class and he came for substitution in my OS class. I have entered my roommate's internals. He's a good guy assuming you study and attend classes. His teaching style was good. You'll understand stuff. But don't take if you're not gonna grind cause he's also infamous for failing people ","remember the teacher who made out with students? Yes that is him. \n","Worst ever","do NOT opt","Strict but be a bit disciplined u will ace","He teaches really great, gives excellent notes but his evaluation is strict.","not good at all...marking to chhoro, ethics naam ki cheez bhi nhi hai\n","bohot jaldi padata hey aur throavi patience nehi hey but teacher knowlegable. chnace hey to mat lo"]</t>
+  </si>
+  <si>
+    <t>Sarbeswar Mohanty</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Arup Sarkar</t>
-  </si>
-  <si>
-    <t>["Extremely linent. Bharke marks dega…","Marks dega. Lekin classes bohot boring honge..Friendly bhi ha","Acha marks dega lenient v hai"]</t>
-  </si>
-  <si>
-    <t>Mandakini Priyadarshani Behera</t>
-  </si>
-  <si>
-    <t>["SE"]</t>
-  </si>
-  <si>
-    <t>["Has no knowledge of the subject herself. Complete bookish knowledge and can't understand shit if you use your own brain and write a code which does not match the one taught in class. Has very poor idea of the subject.","kuch nahi aata usko, sahi likha answer bhi kata ke 0 kar degi , na internal deti hai nahi paper checking me"]</t>
-  </si>
-  <si>
-    <t>Saurabh Bilgaiyan</t>
-  </si>
-  <si>
-    <t>["I never studied from him. But my roommate was in his class and he came for substitution in my OS class. I have entered my roommate's internals. He's a good guy assuming you study and attend classes. His teaching style was good. You'll understand stuff. But don't take if you're not gonna grind cause he's also infamous for failing people ","do NOT opt","Worst ever","remember the teacher who made out with students? Yes that is him. \n","Strict but be a bit disciplined u will ace","He teaches really great, gives excellent notes but his evaluation is strict.","not good at all...marking to chhoro, ethics naam ki cheez bhi nhi hai\n","bohot jaldi padata hey aur throavi patience nehi hey but teacher knowlegable. chnace hey to mat lo"]</t>
-  </si>
-  <si>
-    <t>Sarbeswar Mohanty</t>
-  </si>
-  <si>
     <t>Ganga Bishnu Mund</t>
   </si>
   <si>
     <t>["DAA"]</t>
   </si>
   <si>
+    <t>["best teacher , no attendence required","Hasn't given internals till now,talks to few first benchers and leaves,dont expect to learn from his class,no idea about internals but in exams even if you right correct answer,wnt give marks,will only give if it totally matches with official answer key.Expecting 20"]</t>
+  </si>
+  <si>
     <t>Section 2</t>
   </si>
   <si>
@@ -163,7 +169,7 @@
     <t>Lipika Mohanty</t>
   </si>
   <si>
-    <t>["best faculty","Give you a clear concept and good marks in internal like i got 28 in internal and 18 in mid sem and 42 in end sem","Go for it if you really want to learn something and she is a chill faculty bas mood kharab mat karna she'll give give you good marks in both internal and exams"]</t>
+    <t>["best faculty","Give you a clear concept and good marks in internal like i got 28 in internal and 18 in mid sem and 42 in end sem","Go for it if you really want to learn something and she is a chill faculty bas mood kharab mat karna she'll give give you good marks in both internal and exams","She is the boss🫡🫡"]</t>
   </si>
   <si>
     <t>Tanmoy Maitra</t>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,9 +257,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +716,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>20</v>
@@ -728,10 +733,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>22</v>
@@ -765,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="8">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>27</v>
@@ -776,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C23" s="10">
         <v>28</v>
@@ -785,38 +790,38 @@
         <v>2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -825,24 +830,24 @@
         <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="10">
-        <v>6</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>35</v>
+      <c r="C28" s="8">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8">
+        <v>21</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
@@ -859,15 +864,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -876,30 +881,30 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="10">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D33" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C34" s="10">
         <v>28</v>
@@ -916,15 +921,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -933,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" s="10">
         <v>60</v>
@@ -956,41 +961,41 @@
         <v>0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="11">
-        <v>33</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="C39" s="10">
+        <v>50</v>
+      </c>
+      <c r="D39" s="10">
         <v>16</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>20</v>
+      <c r="E39" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D40" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C41" s="10">
         <v>28</v>
@@ -1007,52 +1012,52 @@
         <v>2</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>20</v>
+      <c r="C44" s="9">
+        <v>17</v>
+      </c>
+      <c r="D44" s="9">
+        <v>16</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
+      <c r="A45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10">
+        <v>78</v>
+      </c>
+      <c r="D45" s="10">
+        <v>21</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>19</v>
@@ -1061,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,7 +1077,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C47" s="10">
         <v>28</v>
@@ -1081,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25"/>
